--- a/Definicion y administracion de requerimientos de software/Plantillas/PL Resumen actividades Sem.xlsx
+++ b/Definicion y administracion de requerimientos de software/Plantillas/PL Resumen actividades Sem.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\famil\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carloscruzrodriguez/Desktop/METFOR/Definicion y administracion de requerimientos de software/Plantillas/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DCA982-8226-B14B-8557-8030BAB08FFE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8655" xr2:uid="{74EDF65E-5D9A-48ED-A0AB-4222859313A0}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="21580" windowHeight="8660" xr2:uid="{74EDF65E-5D9A-48ED-A0AB-4222859313A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Semana 1" sheetId="1" r:id="rId1"/>
     <sheet name="Semana 2" sheetId="2" r:id="rId2"/>
     <sheet name="Semana 3" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="24">
   <si>
     <t>METFOR</t>
   </si>
@@ -95,6 +96,9 @@
   </si>
   <si>
     <t>RESUMEN SEMANAS ANTERIORES INCLUIDA SEMANA 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CICLO </t>
   </si>
 </sst>
 </file>
@@ -440,32 +444,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
@@ -493,6 +479,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -511,14 +506,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1002,454 +1006,454 @@
   <dimension ref="B2:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2"/>
-    <col min="2" max="2" width="10.5703125" style="2" customWidth="1"/>
-    <col min="3" max="7" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="11.5" style="2"/>
+    <col min="2" max="2" width="10.5" style="2" customWidth="1"/>
+    <col min="3" max="7" width="11.5" style="2"/>
     <col min="8" max="8" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="2"/>
+    <col min="9" max="16384" width="11.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="22"/>
-    </row>
-    <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="24" t="s">
+      <c r="G10" s="16"/>
+    </row>
+    <row r="12" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="26" t="s">
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="29" t="s">
+    <row r="14" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="28">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="22">
         <f>SUM(D14:H14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="29" t="s">
+    <row r="15" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="22">
         <f t="shared" ref="I15:I20" si="0">SUM(D15:H15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
+    <row r="16" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28">
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="29" t="s">
+    <row r="17" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="28">
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="29" t="s">
+    <row r="18" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="28">
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="29" t="s">
+    <row r="19" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="28">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="29" t="s">
+    <row r="20" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="28">
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="34" t="s">
+    <row r="21" spans="2:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36">
+      <c r="C21" s="32"/>
+      <c r="D21" s="24">
         <f t="shared" ref="D21:H21" si="1">SUM(D14:D20)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H21" s="36">
+      <c r="H21" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I21" s="37">
+      <c r="I21" s="25">
         <f>SUM(I14:I20)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="14" t="s">
+    <row r="22" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="16"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="17"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="23" t="s">
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="35"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="11"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="30" t="s">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="18">
-        <v>0</v>
-      </c>
-      <c r="E25" s="18">
-        <v>0</v>
-      </c>
-      <c r="F25" s="18">
-        <v>0</v>
-      </c>
-      <c r="G25" s="18">
-        <v>0</v>
-      </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="28">
+      <c r="C25" s="28"/>
+      <c r="D25" s="12">
+        <v>0</v>
+      </c>
+      <c r="E25" s="12">
+        <v>0</v>
+      </c>
+      <c r="F25" s="12">
+        <v>0</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0</v>
+      </c>
+      <c r="H25" s="12"/>
+      <c r="I25" s="22">
         <f>SUM(D25:G25)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="30" t="s">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="18">
-        <v>0</v>
-      </c>
-      <c r="E26" s="18">
-        <v>0</v>
-      </c>
-      <c r="F26" s="18">
-        <v>0</v>
-      </c>
-      <c r="G26" s="18">
-        <v>0</v>
-      </c>
-      <c r="H26" s="18"/>
-      <c r="I26" s="28">
+      <c r="C26" s="28"/>
+      <c r="D26" s="12">
+        <v>0</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0</v>
+      </c>
+      <c r="F26" s="12">
+        <v>0</v>
+      </c>
+      <c r="G26" s="12">
+        <v>0</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="22">
         <f t="shared" ref="I26:I28" si="2">SUM(D26:G26)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="30" t="s">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="18">
-        <v>0</v>
-      </c>
-      <c r="E27" s="18">
-        <v>0</v>
-      </c>
-      <c r="F27" s="18">
-        <v>0</v>
-      </c>
-      <c r="G27" s="18">
-        <v>0</v>
-      </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="28">
+      <c r="C27" s="28"/>
+      <c r="D27" s="12">
+        <v>0</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0</v>
+      </c>
+      <c r="F27" s="12">
+        <v>0</v>
+      </c>
+      <c r="G27" s="12">
+        <v>0</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="I27" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="30" t="s">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="18">
-        <v>0</v>
-      </c>
-      <c r="E28" s="18">
-        <v>0</v>
-      </c>
-      <c r="F28" s="18">
-        <v>0</v>
-      </c>
-      <c r="G28" s="18">
-        <v>0</v>
-      </c>
-      <c r="H28" s="18"/>
-      <c r="I28" s="28">
+      <c r="C28" s="28"/>
+      <c r="D28" s="12">
+        <v>0</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0</v>
+      </c>
+      <c r="F28" s="12">
+        <v>0</v>
+      </c>
+      <c r="G28" s="12">
+        <v>0</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="I28" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="10" t="s">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="11"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="12"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="13" t="s">
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="38"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="9"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="30" t="s">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="18">
+      <c r="C31" s="28"/>
+      <c r="D31" s="12">
         <f>D21</f>
         <v>0</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="12">
         <f t="shared" ref="E31:G31" si="3">E21</f>
         <v>0</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H31" s="12">
         <f>SUM(D31:G31)</f>
         <v>0</v>
       </c>
-      <c r="I31" s="19">
+      <c r="I31" s="13">
         <f>SUM(D31:G31)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="30" t="s">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="18">
+      <c r="C32" s="28"/>
+      <c r="D32" s="12">
         <f>'Semana 2'!D2</f>
         <v>0</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="12">
         <f t="shared" ref="E32:F32" si="4">IF(E31=0,0,AVERAGE(E14:E20))</f>
         <v>0</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="12">
         <f>IF(G31=0,0,AVERAGE(G14:G20))</f>
         <v>0</v>
       </c>
-      <c r="H32" s="18"/>
-      <c r="I32" s="19">
+      <c r="H32" s="12"/>
+      <c r="I32" s="13">
         <f t="shared" ref="I32:I34" si="5">SUM(D32:G32)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="30" t="s">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="18">
+      <c r="C33" s="28"/>
+      <c r="D33" s="12">
         <f>IF(D31=0,0,MAX(D14:D20))</f>
         <v>0</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="12">
         <f t="shared" ref="E33:G33" si="6">IF(E31=0,0,MAX(E14:E20))</f>
         <v>0</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H33" s="18"/>
-      <c r="I33" s="19">
+      <c r="H33" s="12"/>
+      <c r="I33" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="32" t="s">
+    <row r="34" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="20">
+      <c r="C34" s="30"/>
+      <c r="D34" s="14">
         <f>IF(D31=0,0,MIN(D14:D20))</f>
         <v>0</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="14">
         <f t="shared" ref="E34:G34" si="7">IF(E31=0,0,MIN(E14:E20))</f>
         <v>0</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F34" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G34" s="20">
+      <c r="G34" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H34" s="20"/>
-      <c r="I34" s="21">
+      <c r="H34" s="14"/>
+      <c r="I34" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1482,489 +1486,489 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2"/>
-    <col min="2" max="2" width="10.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="2"/>
-    <col min="4" max="4" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="11.5" style="2"/>
+    <col min="2" max="2" width="10.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="2"/>
+    <col min="4" max="4" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.5" style="2"/>
     <col min="8" max="8" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="2"/>
+    <col min="9" max="16384" width="11.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="26">
         <f>'Semana 1'!D10</f>
         <v>0</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="22"/>
-    </row>
-    <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="24" t="s">
+      <c r="G10" s="16"/>
+    </row>
+    <row r="12" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="26" t="s">
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="29" t="s">
+    <row r="14" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="28">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="22">
         <f>SUM(D14:H14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="29" t="s">
+    <row r="15" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="22">
         <f t="shared" ref="I15:I20" si="0">SUM(D15:H15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
+    <row r="16" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28">
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="29" t="s">
+    <row r="17" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="28">
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="29" t="s">
+    <row r="18" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="28">
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="29" t="s">
+    <row r="19" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="28">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="29" t="s">
+    <row r="20" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="28">
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="34" t="s">
+    <row r="21" spans="2:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36">
+      <c r="C21" s="32"/>
+      <c r="D21" s="24">
         <f t="shared" ref="D21:H21" si="1">SUM(D14:D20)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H21" s="36">
+      <c r="H21" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I21" s="37">
+      <c r="I21" s="25">
         <f>SUM(I14:I20)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="14" t="s">
+    <row r="22" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="16"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="17"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="23" t="s">
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="35"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="11"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="30" t="s">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="18">
+      <c r="C25" s="28"/>
+      <c r="D25" s="12">
         <f>'Semana 1'!D21</f>
         <v>0</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="12">
         <f>'Semana 1'!E21</f>
         <v>0</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="12">
         <f>'Semana 1'!F21</f>
         <v>0</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="12">
         <f>'Semana 1'!G21</f>
         <v>0</v>
       </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="28">
+      <c r="H25" s="12"/>
+      <c r="I25" s="22">
         <f>SUM(D25:G25)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="30" t="s">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="18">
+      <c r="C26" s="28"/>
+      <c r="D26" s="12">
         <f>'Semana 1'!D32</f>
         <v>0</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="12">
         <f>'Semana 1'!E32</f>
         <v>0</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="12">
         <f>'Semana 1'!F32</f>
         <v>0</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="12">
         <f>'Semana 1'!G32</f>
         <v>0</v>
       </c>
-      <c r="H26" s="18"/>
-      <c r="I26" s="28">
+      <c r="H26" s="12"/>
+      <c r="I26" s="22">
         <f t="shared" ref="I26:I28" si="2">SUM(D26:G26)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="30" t="s">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="18">
+      <c r="C27" s="28"/>
+      <c r="D27" s="12">
         <f>'Semana 1'!D33</f>
         <v>0</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="12">
         <f>'Semana 1'!E33</f>
         <v>0</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="12">
         <f>'Semana 1'!F33</f>
         <v>0</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="12">
         <f>'Semana 1'!G33</f>
         <v>0</v>
       </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="28">
+      <c r="H27" s="12"/>
+      <c r="I27" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="30" t="s">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="18">
+      <c r="C28" s="28"/>
+      <c r="D28" s="12">
         <f>'Semana 1'!D34</f>
         <v>0</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="12">
         <f>'Semana 1'!E34</f>
         <v>0</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="12">
         <f>'Semana 1'!F34</f>
         <v>0</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="12">
         <f>'Semana 1'!G34</f>
         <v>0</v>
       </c>
-      <c r="H28" s="18"/>
-      <c r="I28" s="28">
+      <c r="H28" s="12"/>
+      <c r="I28" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="10" t="s">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="11"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="12"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="13" t="s">
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="38"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="9"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="30" t="s">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="18">
+      <c r="C31" s="28"/>
+      <c r="D31" s="12">
         <f>D21+D25</f>
         <v>0</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="12">
         <f t="shared" ref="E31:G31" si="3">E21+E25</f>
         <v>0</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H31" s="12">
         <f>SUM(D31:G31)</f>
         <v>0</v>
       </c>
-      <c r="I31" s="19">
+      <c r="I31" s="13">
         <f>SUM(D31:G31)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="30" t="s">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="18">
+      <c r="C32" s="28"/>
+      <c r="D32" s="12">
         <f>IF(D21=0,0,AVERAGE(D14:D20,'Semana 1'!D14:D20))</f>
         <v>0</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="12">
         <f>IF(E21=0,0,AVERAGE(E14:E20,'Semana 1'!E14:E20))</f>
         <v>0</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="12">
         <f>IF(F21=0,0,AVERAGE(F14:F20,'Semana 1'!F14:F20))</f>
         <v>0</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="12">
         <f>IF(G21=0,0,AVERAGE(G14:G20,'Semana 1'!G14:G20))</f>
         <v>0</v>
       </c>
-      <c r="H32" s="18"/>
-      <c r="I32" s="19">
+      <c r="H32" s="12"/>
+      <c r="I32" s="13">
         <f t="shared" ref="I32:I34" si="4">SUM(D32:G32)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="30" t="s">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="18">
+      <c r="C33" s="28"/>
+      <c r="D33" s="12">
         <f>IF(D31=0,0,MAX(D14:D20,'Semana 1'!D14:D20))</f>
         <v>0</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="12">
         <f>IF(E31=0,0,MAX(E14:E20,'Semana 1'!E14:E20))</f>
         <v>0</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="12">
         <f>IF(F31=0,0,MAX(F14:F20,'Semana 1'!F14:F20))</f>
         <v>0</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="12">
         <f>IF(G31=0,0,MAX(G14:G20,'Semana 1'!G14:G20))</f>
         <v>0</v>
       </c>
-      <c r="H33" s="18"/>
-      <c r="I33" s="19">
+      <c r="H33" s="12"/>
+      <c r="I33" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="32" t="s">
+    <row r="34" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="20">
+      <c r="C34" s="30"/>
+      <c r="D34" s="14">
         <f>IF(D31=0,0,MIN(D14:D20,'Semana 1'!D14:D20))</f>
         <v>0</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="14">
         <f>IF(E31=0,0,MIN(E14:E20,'Semana 1'!E14:E20))</f>
         <v>0</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F34" s="14">
         <f>IF(F31=0,0,MIN(F14:F20,'Semana 1'!F14:F20))</f>
         <v>0</v>
       </c>
-      <c r="G34" s="20">
+      <c r="G34" s="14">
         <f>IF(G31=0,0,MIN(G14:G20,'Semana 1'!G14:G20))</f>
         <v>0</v>
       </c>
-      <c r="H34" s="20"/>
-      <c r="I34" s="21">
+      <c r="H34" s="14"/>
+      <c r="I34" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1980,489 +1984,489 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2"/>
-    <col min="2" max="2" width="10.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="2"/>
-    <col min="4" max="4" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="11.5" style="2"/>
+    <col min="2" max="2" width="10.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="2"/>
+    <col min="4" max="4" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.5" style="2"/>
     <col min="8" max="8" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="2"/>
+    <col min="9" max="16384" width="11.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="26">
         <f>'Semana 1'!D10</f>
         <v>0</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="22"/>
-    </row>
-    <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="24" t="s">
+      <c r="G10" s="16"/>
+    </row>
+    <row r="12" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="26" t="s">
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="29" t="s">
+    <row r="14" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="28">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="22">
         <f>SUM(D14:H14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="29" t="s">
+    <row r="15" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="22">
         <f t="shared" ref="I15:I20" si="0">SUM(D15:H15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
+    <row r="16" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28">
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="29" t="s">
+    <row r="17" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="28">
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="29" t="s">
+    <row r="18" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="28">
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="29" t="s">
+    <row r="19" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="28">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="29" t="s">
+    <row r="20" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="28">
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="34" t="s">
+    <row r="21" spans="2:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36">
+      <c r="C21" s="32"/>
+      <c r="D21" s="24">
         <f t="shared" ref="D21:H21" si="1">SUM(D14:D20)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H21" s="36">
+      <c r="H21" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I21" s="37">
+      <c r="I21" s="25">
         <f>SUM(I14:I20)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="14" t="s">
+    <row r="22" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="16"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="17"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="23" t="s">
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="35"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="11"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="30" t="s">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="18">
+      <c r="C25" s="28"/>
+      <c r="D25" s="12">
         <f>'Semana 2'!D31</f>
         <v>0</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="12">
         <f>'Semana 2'!E31</f>
         <v>0</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="12">
         <f>'Semana 2'!F31</f>
         <v>0</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="12">
         <f>'Semana 2'!G31</f>
         <v>0</v>
       </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="28">
+      <c r="H25" s="12"/>
+      <c r="I25" s="22">
         <f>SUM(D25:G25)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="30" t="s">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="18">
+      <c r="C26" s="28"/>
+      <c r="D26" s="12">
         <f>'Semana 2'!D32</f>
         <v>0</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="12">
         <f>'Semana 2'!E32</f>
         <v>0</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="12">
         <f>'Semana 2'!F32</f>
         <v>0</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="12">
         <f>'Semana 2'!G32</f>
         <v>0</v>
       </c>
-      <c r="H26" s="18"/>
-      <c r="I26" s="28">
+      <c r="H26" s="12"/>
+      <c r="I26" s="22">
         <f t="shared" ref="I26:I28" si="2">SUM(D26:G26)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="30" t="s">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="18">
+      <c r="C27" s="28"/>
+      <c r="D27" s="12">
         <f>'Semana 2'!D33</f>
         <v>0</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="12">
         <f>'Semana 2'!E33</f>
         <v>0</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="12">
         <f>'Semana 2'!F33</f>
         <v>0</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="12">
         <f>'Semana 2'!G33</f>
         <v>0</v>
       </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="28">
+      <c r="H27" s="12"/>
+      <c r="I27" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="30" t="s">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="18">
+      <c r="C28" s="28"/>
+      <c r="D28" s="12">
         <f>'Semana 2'!D34</f>
         <v>0</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="12">
         <f>'Semana 2'!E34</f>
         <v>0</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="12">
         <f>'Semana 2'!F34</f>
         <v>0</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="12">
         <f>'Semana 2'!G34</f>
         <v>0</v>
       </c>
-      <c r="H28" s="18"/>
-      <c r="I28" s="28">
+      <c r="H28" s="12"/>
+      <c r="I28" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="10" t="s">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="11"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="12"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="13" t="s">
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="38"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="9"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="30" t="s">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="18">
+      <c r="C31" s="28"/>
+      <c r="D31" s="12">
         <f>D21+D25</f>
         <v>0</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="12">
         <f t="shared" ref="E31:G31" si="3">E21+E25</f>
         <v>0</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H31" s="12">
         <f>SUM(D31:G31)</f>
         <v>0</v>
       </c>
-      <c r="I31" s="19">
+      <c r="I31" s="13">
         <f>SUM(D31:G31)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="30" t="s">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="18" t="e">
+      <c r="C32" s="28"/>
+      <c r="D32" s="12" t="e">
         <f>AVERAGE(D14:D20,'Semana 2'!D14:D20,'Semana 1'!D14:D20)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E32" s="18" t="e">
+      <c r="E32" s="12" t="e">
         <f>AVERAGE(E14:E20,'Semana 2'!E14:E20,'Semana 1'!E14:E20)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F32" s="18" t="e">
+      <c r="F32" s="12" t="e">
         <f>AVERAGE(F14:F20,'Semana 2'!F14:F20,'Semana 1'!F14:F20)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G32" s="18" t="e">
+      <c r="G32" s="12" t="e">
         <f>AVERAGE(G14:G20,'Semana 2'!G14:G20,'Semana 1'!G14:G20)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="18"/>
-      <c r="I32" s="19" t="e">
+      <c r="H32" s="12"/>
+      <c r="I32" s="13" t="e">
         <f t="shared" ref="I32:I34" si="4">SUM(D32:G32)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="30" t="s">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="18">
+      <c r="C33" s="28"/>
+      <c r="D33" s="12">
         <f>MAX(D27,D14:D20)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="12">
         <f t="shared" ref="E33:G33" si="5">MAX(E27,E14:E20)</f>
         <v>0</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H33" s="18"/>
-      <c r="I33" s="19">
+      <c r="H33" s="12"/>
+      <c r="I33" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="32" t="s">
+    <row r="34" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="20">
+      <c r="C34" s="30"/>
+      <c r="D34" s="14">
         <f>MIN(D28,D14:D20)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="14">
         <f t="shared" ref="E34:G34" si="6">MIN(E28,E14:E20)</f>
         <v>0</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F34" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G34" s="20">
+      <c r="G34" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H34" s="20"/>
-      <c r="I34" s="21">
+      <c r="H34" s="14"/>
+      <c r="I34" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
